--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>-4.183630644014806</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.95081067204687</v>
+        <v>-10.33023551734905</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.211276388149904</v>
+        <v>-1.901266932514552</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.991505091520159</v>
+        <v>-7.355952342371409</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.693324201755739</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.51900352307494</v>
+        <v>-10.87668205335702</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.279696762800765</v>
+        <v>-2.007105108687065</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.903132047338508</v>
+        <v>-7.280632324122958</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.102499371911182</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.89128315437942</v>
+        <v>-11.19875270326348</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.199427854078142</v>
+        <v>-1.91915101819635</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.396145712095508</v>
+        <v>-6.843571978357617</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.527243400000804</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.4553388377095</v>
+        <v>-11.76800603082173</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.239843792950551</v>
+        <v>-1.984573255496455</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.078762106606384</v>
+        <v>-6.509836086619178</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.003023118060072</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.89080192252815</v>
+        <v>-12.22765059898905</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.453575636841729</v>
+        <v>-2.201473436675331</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.655461771127698</v>
+        <v>-6.119868754175525</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.574746930400918</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.54004922044935</v>
+        <v>-12.8183360262992</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.297292817820045</v>
+        <v>-2.069961254630192</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.187490498353041</v>
+        <v>-5.675018488219357</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.245694069608923</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.24016011491065</v>
+        <v>-13.51391698397726</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.403327378535184</v>
+        <v>-2.133799323286449</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.916728583283303</v>
+        <v>-5.4144162001548</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.009604354257863</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.81894463893768</v>
+        <v>-14.05885790515843</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.366289253795941</v>
+        <v>-2.149195871428318</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.575320602079613</v>
+        <v>-5.106891098705496</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.8374437659047863</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.50839839888581</v>
+        <v>-14.73658096176038</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.334998650004216</v>
+        <v>-2.105258103091486</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.458353968491632</v>
+        <v>-5.016135255406651</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.7050570754663119</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.02702379135511</v>
+        <v>-15.23321128545557</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.363160193416769</v>
+        <v>-2.122723235082348</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.239110265104087</v>
+        <v>-4.874712200110326</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5959929067527512</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.61933266421764</v>
+        <v>-15.83158189453382</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.350211905906302</v>
+        <v>-2.124202665303463</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.968374534640034</v>
+        <v>-4.611412897660373</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.5042541649172124</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.00212541470403</v>
+        <v>-16.157894450561</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.339685694421554</v>
+        <v>-2.137268783539506</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.442299621853797</v>
+        <v>-4.099111087463632</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.4356292656182224</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.76430691693795</v>
+        <v>-16.84939060975245</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.154625993753756</v>
+        <v>-1.949237130126636</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.969811504598745</v>
+        <v>-3.634098675131205</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.3920112694693156</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.47927757512461</v>
+        <v>-17.56769980516375</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.03284139272002</v>
+        <v>-1.872948281467898</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.88565418193213</v>
+        <v>-3.586233215941855</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3675422188323412</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.30119925522533</v>
+        <v>-18.37075547686954</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8391538644795244</v>
+        <v>-1.681316244773554</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.577985065151568</v>
+        <v>-3.299603429827946</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.3497170932568043</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.04637385606785</v>
+        <v>-19.0268631414798</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6163359624161885</v>
+        <v>-1.494070129531188</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.319071684153593</v>
+        <v>-3.016416919361411</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.3175826151778159</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.63743896016042</v>
+        <v>-19.55060762436021</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6476396585107554</v>
+        <v>-1.525923702345107</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.173197245891081</v>
+        <v>-2.898861132145553</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.2521890347304887</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.16259741174774</v>
+        <v>-20.04768308635203</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3566632278533936</v>
+        <v>-1.275991641096556</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.798731200012032</v>
+        <v>-2.551155753274992</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.140331861665153</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.59800812735502</v>
+        <v>-20.46552393154571</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07151287196059987</v>
+        <v>-0.9715432308150584</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.362783699988237</v>
+        <v>-2.130028740068031</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.02191703013427955</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.23988445877632</v>
+        <v>-21.09383663722299</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1160081816414426</v>
+        <v>-0.7524566350616144</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.235238485704142</v>
+        <v>-2.03747925127987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2241547758541832</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.70649413205544</v>
+        <v>-21.58246756388189</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3189388756881967</v>
+        <v>-0.5425477436002204</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.174647308152634</v>
+        <v>-2.017029074241094</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4460031398925465</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.034181379881</v>
+        <v>-21.8656147974399</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4933152572371462</v>
+        <v>-0.3848509558716299</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.944091855109838</v>
+        <v>-1.795585863976139</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6614770860197774</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.54073566913022</v>
+        <v>-22.31199686282855</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6898569074971379</v>
+        <v>-0.1818678926135089</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.035122636768359</v>
+        <v>-1.961871202368902</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8463759105177716</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.72474798557068</v>
+        <v>-22.47650164803484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9076735498749345</v>
+        <v>0.04100237866119397</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.21467047793979</v>
+        <v>-2.125276234136485</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9840902225122153</v>
       </c>
       <c r="E26" t="n">
-        <v>-23.85932376648079</v>
+        <v>-22.62780939197667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9835303525398953</v>
+        <v>0.08804302277151572</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.349350997272627</v>
+        <v>-2.338850970393562</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.065739031534428</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.89409692282841</v>
+        <v>-22.68032261867483</v>
       </c>
       <c r="F27" t="n">
-        <v>1.017190663145973</v>
+        <v>0.143947155905686</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.464864385245176</v>
+        <v>-2.523164409799382</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.091154993266079</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.84687298647831</v>
+        <v>-22.62169528654958</v>
       </c>
       <c r="F28" t="n">
-        <v>1.053731280377231</v>
+        <v>0.2137160377492442</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.54522494008769</v>
+        <v>-2.605763748427831</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.067775474338878</v>
       </c>
       <c r="E29" t="n">
-        <v>-23.89196287746521</v>
+        <v>-22.62224516326893</v>
       </c>
       <c r="F29" t="n">
-        <v>1.180556418005031</v>
+        <v>0.3183759066660025</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.68948902510067</v>
+        <v>-2.805853412757931</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.007545714230657</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.7862818089268</v>
+        <v>-22.58647699190534</v>
       </c>
       <c r="F30" t="n">
-        <v>1.138870525756975</v>
+        <v>0.2811413973841335</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.929588766915084</v>
+        <v>-3.030936283212886</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9251804534727747</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.45704966936591</v>
+        <v>-22.32611036529193</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9710141110232052</v>
+        <v>0.1617526877704335</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.961455432031845</v>
+        <v>-3.070710699246049</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8343797336189549</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.30685477116563</v>
+        <v>-22.20884260873859</v>
       </c>
       <c r="F32" t="n">
-        <v>1.044998714381799</v>
+        <v>0.1967876901748924</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.360482638041972</v>
+        <v>-3.464749737873479</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7462393659503883</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.06701687540805</v>
+        <v>-21.99655091816</v>
       </c>
       <c r="F33" t="n">
-        <v>0.929302034169466</v>
+        <v>0.08135285601939371</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.394103671739525</v>
+        <v>-3.448083236355961</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6665436528663973</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.57262533549879</v>
+        <v>-21.53699799611258</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7918983158455509</v>
+        <v>-0.03402960892473813</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.462497861784702</v>
+        <v>-3.458111940332724</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.596470440005145</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.18413743327625</v>
+        <v>-21.18745969484417</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7521893613265958</v>
+        <v>-0.09625732433146213</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.453254695978443</v>
+        <v>-3.413964695150423</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5321406337918615</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.79673619218958</v>
+        <v>-20.87156861187901</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6320543904509173</v>
+        <v>-0.2098854206948027</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.521478686086678</v>
+        <v>-3.431377457929919</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4634606442285505</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.29130784098474</v>
+        <v>-20.39875318705291</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6096141833801988</v>
+        <v>-0.2139178499700543</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.438015255470674</v>
+        <v>-3.266008580736077</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3796780152655445</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.82227609167991</v>
+        <v>-20.02293863398116</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5913635132188327</v>
+        <v>-0.3037703243728203</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.27187393240917</v>
+        <v>-3.058691965237345</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2666747772755292</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.44269095538974</v>
+        <v>-19.72182876092431</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5560535724546974</v>
+        <v>-0.3027622170540074</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.17948155125511</v>
+        <v>-2.881618569303</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1133962783311676</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.99856076608987</v>
+        <v>-19.31101848235663</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4847528911786573</v>
+        <v>-0.4290112933567719</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.303740597525932</v>
+        <v>-3.012541597720261</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.08601988522093514</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.4314022069863</v>
+        <v>-18.84275917891945</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5356557646272883</v>
+        <v>-0.3595959036899403</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.077531789026589</v>
+        <v>-2.674406692227001</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.3380402480299943</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.79892614900535</v>
+        <v>-18.25432562769807</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5281931520075044</v>
+        <v>-0.3908210459674569</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.129115462222989</v>
+        <v>-2.633611076572183</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.6412315468080156</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.31870048077084</v>
+        <v>-17.8220570647728</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3244900120930885</v>
+        <v>-0.6132199943398576</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.037521711542274</v>
+        <v>-2.527484869737151</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.9938838819446641</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.94360600435539</v>
+        <v>-17.47572637770062</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2925840700678021</v>
+        <v>-0.6947326718324441</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.922859323254437</v>
+        <v>-2.377983863587481</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.394620613949061</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.66987213654058</v>
+        <v>-17.28713175526556</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3704963642789139</v>
+        <v>-0.6026806905522681</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.038385803529827</v>
+        <v>-2.397831794695538</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.83663051621084</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.16206098621855</v>
+        <v>-16.84637938009885</v>
       </c>
       <c r="F46" t="n">
-        <v>0.378233915258374</v>
+        <v>-0.6832769068459339</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.991292790208139</v>
+        <v>-2.339492493232807</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.321314708875107</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.89047425606978</v>
+        <v>-16.71236656821094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3657831352558926</v>
+        <v>-0.6691110351711862</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.902474607729869</v>
+        <v>-2.277173131706191</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.84577318986653</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.57534252666944</v>
+        <v>-16.47133727289477</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3236259201055346</v>
+        <v>-0.7402284242074423</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.834538648284153</v>
+        <v>-2.134048077040441</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.404741371226379</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.05116599779525</v>
+        <v>-15.97623874863205</v>
       </c>
       <c r="F49" t="n">
-        <v>0.235619460403452</v>
+        <v>-0.832241128579093</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.76860581117322</v>
+        <v>-2.060796642640984</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.999590161347071</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.72861093268365</v>
+        <v>-15.70325114207922</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06493510825586922</v>
+        <v>-0.9941798224284027</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.711326986240669</v>
+        <v>-1.953753974607032</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.622500779349431</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.1636256958518</v>
+        <v>-15.15833640550374</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01297175827705845</v>
+        <v>-1.04709891051466</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.758040322779947</v>
+        <v>-1.955429789370772</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.271741961696141</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.85234310348692</v>
+        <v>-14.91165123535994</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1024445558974144</v>
+        <v>-0.9665550634323608</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.881199615612065</v>
+        <v>-2.025133209700122</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.946326865900462</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.34639106016842</v>
+        <v>-14.44813134555147</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2371512598359339</v>
+        <v>-0.8305914984210355</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.998729218222239</v>
+        <v>-2.141026274455081</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.637461210278187</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.00487834054199</v>
+        <v>-14.12822092561389</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08929988384432143</v>
+        <v>-0.9789403819206337</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.147300670870147</v>
+        <v>-2.28475357505155</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.348244541748084</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.5059568638495</v>
+        <v>-13.6505744410392</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.03971166835804724</v>
+        <v>-1.051851416446206</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.26943876408061</v>
+        <v>-2.384870414882229</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.071493039544645</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.3822084173895</v>
+        <v>-13.61879942204233</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06963524497604888</v>
+        <v>-0.9215044493539813</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.309357195445032</v>
+        <v>-2.358515609261834</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.799532720149939</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.05361780066786</v>
+        <v>-13.3256365768104</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.03675280791581715</v>
+        <v>-1.061775382000234</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.521832178263404</v>
+        <v>-2.612584838208371</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.531950526514358</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.90704947035474</v>
+        <v>-13.24515819124231</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01531528048572742</v>
+        <v>-0.9763219213522885</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.919366861749575</v>
+        <v>-3.000549048317239</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.25684612253928</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.57208290214917</v>
+        <v>-12.96256083440366</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.03289057857750796</v>
+        <v>-0.9992072667196256</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.117217742293739</v>
+        <v>-3.185189795294102</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.9706853208847</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.12888226635106</v>
+        <v>-12.56613899665903</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1222455454722884</v>
+        <v>-1.062128874176961</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.256598398346755</v>
+        <v>-3.371048126435245</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.66517964920376</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.06698185851538</v>
+        <v>-12.49631774560411</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.08425168262559933</v>
+        <v>-0.9998226049531868</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.447143773905236</v>
+        <v>-3.527317853154088</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.32522335453873</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.76292621731914</v>
+        <v>-12.24381959299858</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1359008173362087</v>
+        <v>-1.021896227544337</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.714396951813391</v>
+        <v>-3.756433152884294</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.94710212531398</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.52897985784033</v>
+        <v>-12.00292122071082</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.196727656338868</v>
+        <v>-1.074265438911241</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.710809660834757</v>
+        <v>-3.736585221776237</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.51438573679217</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.35121256985538</v>
+        <v>-11.83777491266529</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1739601416971064</v>
+        <v>-0.9930146074754892</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.743226202670871</v>
+        <v>-3.816500638322133</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.01451231115139</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.25304648314811</v>
+        <v>-11.70185062456249</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1873142905956669</v>
+        <v>-1.005269002935345</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.766739978574611</v>
+        <v>-3.912467218151985</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.43704858750069</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.11868017908348</v>
+        <v>-11.60293827659324</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2114695893386515</v>
+        <v>-1.0540771079293</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.83932370552914</v>
+        <v>-3.953524679863638</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.7662811257028</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.08491513005467</v>
+        <v>-11.62607237571457</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.43043835436652</v>
+        <v>-1.239725962224975</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.835801876064716</v>
+        <v>-3.897908577391986</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.99568399521496</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.07317133440564</v>
+        <v>-11.60407730694048</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4464895176504762</v>
+        <v>-1.280560854788319</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.721100210868354</v>
+        <v>-3.853538763061376</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.11319093795658</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.01467492530881</v>
+        <v>-11.51150163354663</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.3896820156202268</v>
+        <v>-1.16770520429264</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.477125147412789</v>
+        <v>-3.618230804087033</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.11304568969329</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.06849738229115</v>
+        <v>-11.59290957261648</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6951647178262211</v>
+        <v>-1.461614310786549</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.376013292566138</v>
+        <v>-3.559616564264626</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.00007204749253</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.96696657375356</v>
+        <v>-11.54052726894674</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6627350836872656</v>
+        <v>-1.445523870594067</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.307710748640853</v>
+        <v>-3.457352586767903</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.77621532038086</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.13913035612226</v>
+        <v>-11.69303950475</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6785244009143873</v>
+        <v>-1.498010912686547</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.211573968874059</v>
+        <v>-3.394273871676468</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.45529100917528</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.28704719362808</v>
+        <v>-11.79820997347759</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7409746854694207</v>
+        <v>-1.528463609096402</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.109349268285862</v>
+        <v>-3.286615865408954</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.04708228569979</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.63566903369756</v>
+        <v>-12.12405120660247</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7757740264227285</v>
+        <v>-1.566941887148235</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.108825576172193</v>
+        <v>-3.281994282505825</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.56594523026229</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.95742546833582</v>
+        <v>-12.41642851366389</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.8566844579845956</v>
+        <v>-1.66467592786172</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.937944839481984</v>
+        <v>-3.118864189097918</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.02920439290575</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.0915561109493</v>
+        <v>-12.58433729760903</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9781286591444467</v>
+        <v>-1.831917004361929</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.633339321566385</v>
+        <v>-2.781671929409263</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.44346337790341</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.52586707311788</v>
+        <v>-13.04561840363156</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.021424904642035</v>
+        <v>-1.891604813017358</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.480787808854593</v>
+        <v>-2.595669582936861</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.82427721604592</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.30859039851047</v>
+        <v>-13.79960412428657</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.206707174458142</v>
+        <v>-2.087256186684112</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.366675297286109</v>
+        <v>-2.479449210610858</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.18157687530629</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.85089976682045</v>
+        <v>-14.3004501694968</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.207401066508754</v>
+        <v>-2.044941863899654</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.217331398770539</v>
+        <v>-2.32002423890716</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.52013957370277</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.45584271192525</v>
+        <v>-14.91057766652692</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.270283397057564</v>
+        <v>-2.155598007517922</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.049710645487921</v>
+        <v>-2.222355659707884</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.849203103484184</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.09262613754112</v>
+        <v>-15.53762041882855</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.326449376248569</v>
+        <v>-2.254955493783781</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.666079987619663</v>
+        <v>-1.895755073018185</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.16274705437392</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.99738281772144</v>
+        <v>-16.37276532479941</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.526237917613309</v>
+        <v>-2.456079450038377</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.557178212582186</v>
+        <v>-1.8347318494729</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.463113483722907</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.76883367036731</v>
+        <v>-17.21627621228614</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.629667110062945</v>
+        <v>-2.610568623570745</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.465178600513377</v>
+        <v>-1.805653844861426</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.751985154085687</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.6900866521282</v>
+        <v>-18.10761328205369</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.776196163467542</v>
+        <v>-2.775531639376493</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.217432953839395</v>
+        <v>-1.597460045072298</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.028924089526987</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.70416406103694</v>
+        <v>-19.0864462117125</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.89473387339653</v>
+        <v>-2.924378030384077</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.199221560586554</v>
+        <v>-1.593414523494205</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.310437732796622</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.94352072494326</v>
+        <v>-20.32379975328403</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.061006119486451</v>
+        <v>-3.095913382216372</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.001553972282173</v>
+        <v>-1.475793274764138</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.611759258602302</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.10770138593238</v>
+        <v>-21.50251287042747</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.016505382127424</v>
+        <v>-3.07534537445202</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.181376751813281</v>
+        <v>-1.665526927546432</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.951869724274729</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.5940574352507</v>
+        <v>-22.95958143828885</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.049916938979509</v>
+        <v>-3.146148548220075</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.024072733169942</v>
+        <v>-1.536345175407121</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.355225730019022</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.92259886611485</v>
+        <v>-24.32496460934962</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.218427968855366</v>
+        <v>-3.314018055256687</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.13093210896411</v>
+        <v>-1.68636987367046</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.836798902262536</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.4923005153236</v>
+        <v>-25.88603843098566</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.206723450114862</v>
+        <v>-3.302483736453126</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.168153525943138</v>
+        <v>-1.796921278865995</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.417459607590696</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.12498923350389</v>
+        <v>-27.49148206695233</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.330838481054426</v>
+        <v>-3.487857652389125</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.357533686548705</v>
+        <v>-2.046552217149186</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.115025281844817</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.78704398695817</v>
+        <v>-29.15848571088078</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.400541901383775</v>
+        <v>-3.531193174795239</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.500737295031505</v>
+        <v>-2.191209071247417</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.938887125196437</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.59599437829662</v>
+        <v>-30.94036121994254</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.522405056234561</v>
+        <v>-3.662129295515341</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.644595518656391</v>
+        <v>-2.445435407828054</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.897254228977185</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.31027432778654</v>
+        <v>-32.65512558463761</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.427800075900249</v>
+        <v>-3.579399033858474</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.013877012610116</v>
+        <v>-2.849293673586778</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.990515586057917</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.17405528342614</v>
+        <v>-34.54439725391005</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.715385600121604</v>
+        <v>-3.823347912708356</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.102433349031552</v>
+        <v>-2.975883149763427</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.210165122149446</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.10022106210657</v>
+        <v>-36.44025435151188</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.004817139043642</v>
+        <v>-4.138872411193954</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.597152196511855</v>
+        <v>-3.499994217123406</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.538118258644113</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.19650822391238</v>
+        <v>-38.51438933690949</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.095481336222595</v>
+        <v>-4.222087088055965</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.748486125059366</v>
+        <v>-3.690500315773361</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.950502356741846</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.46349283016861</v>
+        <v>-40.76790196354159</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.246828357072948</v>
+        <v>-4.383554459002973</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.151441021922011</v>
+        <v>-4.111404759832013</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.404352538247564</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.48896372590353</v>
+        <v>-42.71819685635931</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.471767212196644</v>
+        <v>-4.559776855252605</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.383502089791605</v>
+        <v>-4.38102764455452</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.870784392492477</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.5948082687838</v>
+        <v>-44.76486419039498</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.582122232849553</v>
+        <v>-4.669228507009436</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.399605622286929</v>
+        <v>-4.405641173896965</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.286019405024931</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.74647587161011</v>
+        <v>-46.96154313039115</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.71453778379077</v>
+        <v>-4.794888429684322</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.872813816198276</v>
+        <v>-4.892635562700649</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.636466038592799</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.9743799538838</v>
+        <v>-49.14039035391689</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.016289179686873</v>
+        <v>-5.16828090673035</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.228400761379556</v>
+        <v>-5.283977586942683</v>
       </c>
     </row>
   </sheetData>
